--- a/Master/MasterData/QuestReward.xlsx
+++ b/Master/MasterData/QuestReward.xlsx
@@ -260,7 +260,7 @@
   <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,7 +343,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="n">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
